--- a/h5文档/Amazing-personal.xlsx
+++ b/h5文档/Amazing-personal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amazing\Desktop\h5game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apache-tomcat-9.0.0.M21\webapps\h5game\h5文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="169">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1161,6 +1161,35 @@
   </si>
   <si>
     <t>今年至下年4月免费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7754,10 +7783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9740,25 +9769,25 @@
         <v>1399.46</v>
       </c>
       <c r="E57" s="111">
-        <v>0</v>
+        <v>5.09</v>
       </c>
       <c r="F57" s="111">
         <f>D57+E57</f>
-        <v>1399.46</v>
+        <v>1404.55</v>
       </c>
       <c r="G57" s="112">
         <v>42811</v>
       </c>
       <c r="H57" s="110">
         <f>F57</f>
-        <v>1399.46</v>
+        <v>1404.55</v>
       </c>
       <c r="I57" s="113">
         <v>1500</v>
       </c>
       <c r="J57" s="114">
         <f>(H57-I57)/I57</f>
-        <v>-6.7026666666666637E-2</v>
+        <v>-6.3633333333333361E-2</v>
       </c>
       <c r="K57" s="115" t="s">
         <v>140</v>
@@ -9768,104 +9797,459 @@
       </c>
       <c r="M57" s="117"/>
     </row>
-    <row r="64" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
+    <row r="59" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J59" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L59" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M59" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="127" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="118">
+        <v>28</v>
+      </c>
+      <c r="C60" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="96">
+        <v>10041.740000000002</v>
+      </c>
+      <c r="E60" s="96">
+        <v>3.79</v>
+      </c>
+      <c r="F60" s="96">
+        <f>D60+E60</f>
+        <v>10045.530000000002</v>
+      </c>
+      <c r="G60" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" s="97">
+        <v>10049.32</v>
+      </c>
+      <c r="I60" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J60" s="62">
+        <f t="shared" ref="J60:J64" si="11">E60/D60</f>
+        <v>3.7742462959606594E-4</v>
+      </c>
+      <c r="K60" s="130">
+        <f>E66/D66</f>
+        <v>2.4896022952943046E-4</v>
+      </c>
+      <c r="L60" s="130">
+        <f>K60*365</f>
+        <v>9.0870483778242112E-2</v>
+      </c>
+      <c r="M60" s="108">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="127"/>
+      <c r="B61" s="119">
+        <v>117.98</v>
+      </c>
+      <c r="C61" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" s="98">
+        <v>10001.918</v>
+      </c>
+      <c r="E61" s="98">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F61" s="98">
+        <f>D61+E61</f>
+        <v>10003.835999999999</v>
+      </c>
+      <c r="G61" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="H61" s="100">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I61" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J61" s="62">
+        <f t="shared" si="11"/>
+        <v>1.9176321981443959E-4</v>
+      </c>
+      <c r="K61" s="130"/>
+      <c r="L61" s="130"/>
+      <c r="M61" s="108">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="127"/>
+      <c r="B62" s="122">
+        <v>6.12</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="101">
+        <v>9000</v>
+      </c>
+      <c r="E62" s="101">
+        <v>1</v>
+      </c>
+      <c r="F62" s="101">
+        <f t="shared" ref="F62:F64" si="12">D62+E62</f>
+        <v>9001</v>
+      </c>
+      <c r="G62" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="103">
+        <f>F62</f>
+        <v>9001</v>
+      </c>
+      <c r="I62" s="12">
+        <v>9000</v>
+      </c>
+      <c r="J62" s="62">
+        <f t="shared" si="11"/>
+        <v>1.1111111111111112E-4</v>
+      </c>
+      <c r="K62" s="130"/>
+      <c r="L62" s="130"/>
+      <c r="M62" s="84"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="127"/>
+      <c r="B63" s="149">
+        <v>118.93</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="104">
+        <v>10002.1535</v>
+      </c>
+      <c r="E63" s="104">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F63" s="104">
+        <f t="shared" si="12"/>
+        <v>10004.307000000001</v>
+      </c>
+      <c r="G63" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" s="105">
+        <v>10079.68</v>
+      </c>
+      <c r="I63" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J63" s="62">
+        <f t="shared" si="11"/>
+        <v>2.1530363436234008E-4</v>
+      </c>
+      <c r="K63" s="130"/>
+      <c r="L63" s="130"/>
+      <c r="M63" s="84" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="127"/>
+      <c r="B64" s="150"/>
+      <c r="C64" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="104">
+        <v>1021.372</v>
+      </c>
+      <c r="E64" s="104">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F64" s="104">
+        <f t="shared" si="12"/>
+        <v>1021.7008</v>
+      </c>
+      <c r="G64" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="H64" s="105">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I64" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J64" s="62">
+        <f t="shared" si="11"/>
+        <v>3.2191992731345681E-4</v>
+      </c>
+      <c r="K64" s="130"/>
+      <c r="L64" s="130"/>
+      <c r="M64" s="84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="128"/>
+      <c r="B65" s="121">
+        <v>29.59</v>
+      </c>
+      <c r="C65" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="57">
+        <v>10062.51</v>
+      </c>
+      <c r="E65" s="58">
+        <v>3.29</v>
+      </c>
+      <c r="F65" s="58">
+        <f>D65+E65</f>
+        <v>10065.800000000001</v>
+      </c>
+      <c r="G65" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="H65" s="58">
+        <v>11196.73</v>
+      </c>
+      <c r="I65" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J65" s="62">
+        <f>E65/D65</f>
+        <v>3.2695619681371744E-4</v>
+      </c>
+      <c r="K65" s="131"/>
+      <c r="L65" s="131"/>
+      <c r="M65" s="84" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="80">
+        <f>SUM(B60:B65)</f>
+        <v>300.62</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="11">
+        <f>SUM(D60:D65)</f>
+        <v>50129.693500000008</v>
+      </c>
+      <c r="E66" s="61">
+        <f>SUM(E60:E65)</f>
+        <v>12.4803</v>
+      </c>
+      <c r="F66" s="11">
+        <f>SUM(F60:F65)</f>
+        <v>50142.173800000004</v>
+      </c>
+      <c r="G66" s="123" t="s">
+        <v>157</v>
+      </c>
+      <c r="H66" s="66">
+        <f>K60*10000</f>
+        <v>2.4896022952943047</v>
+      </c>
+      <c r="I66" s="13">
+        <f>SUM(I60:I65)</f>
+        <v>50000</v>
+      </c>
+      <c r="J66" s="68"/>
+      <c r="K66" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L66" s="66">
+        <f>L60*10000</f>
+        <v>908.70483778242112</v>
+      </c>
+      <c r="M66" s="87"/>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="110">
+        <v>1404.55</v>
+      </c>
+      <c r="E67" s="111">
+        <v>0</v>
+      </c>
+      <c r="F67" s="111">
+        <f>D67+E67</f>
+        <v>1404.55</v>
+      </c>
+      <c r="G67" s="112">
+        <v>42811</v>
+      </c>
+      <c r="H67" s="110">
+        <f>F67</f>
+        <v>1404.55</v>
+      </c>
+      <c r="I67" s="113">
+        <v>1500</v>
+      </c>
+      <c r="J67" s="114">
+        <f>(H67-I67)/I67</f>
+        <v>-6.3633333333333361E-2</v>
+      </c>
+      <c r="K67" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="L67" s="116">
+        <v>0.33</v>
+      </c>
+      <c r="M67" s="117"/>
+    </row>
+    <row r="73" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B73" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C73" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="46" t="s">
+      <c r="D73" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="46" t="s">
+      <c r="E73" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F73" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="G73" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H64" s="135" t="s">
+      <c r="H73" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="I64" s="136"/>
-      <c r="J64" s="89" t="s">
+      <c r="I73" s="136"/>
+      <c r="J73" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="K64" s="135" t="s">
+      <c r="K73" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="L64" s="136"/>
-      <c r="M64" s="25" t="s">
+      <c r="L73" s="136"/>
+      <c r="M73" s="25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+    <row r="74" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="47">
-        <f>F56+B56</f>
-        <v>50430.313500000011</v>
-      </c>
-      <c r="D65" s="47">
-        <f>I56</f>
+      <c r="C74" s="47">
+        <f>F66+B66</f>
+        <v>50442.793800000007</v>
+      </c>
+      <c r="D74" s="47">
+        <f>I66</f>
         <v>50000</v>
       </c>
-      <c r="E65" s="81">
-        <v>19</v>
-      </c>
-      <c r="F65" s="24">
-        <f>C65-D65</f>
-        <v>430.31350000001112</v>
-      </c>
-      <c r="G65" s="82">
-        <f>F65/D65</f>
-        <v>8.606270000000223E-3</v>
-      </c>
-      <c r="H65" s="137">
-        <f>G65/E65</f>
-        <v>4.5296157894738015E-4</v>
-      </c>
-      <c r="I65" s="138"/>
-      <c r="J65" s="90">
-        <f>H65*365</f>
-        <v>0.16533097631579374</v>
-      </c>
-      <c r="K65" s="152">
-        <f>H65*10000</f>
-        <v>4.5296157894738016</v>
-      </c>
-      <c r="L65" s="153"/>
-      <c r="M65" s="86">
-        <f>F65/E65</f>
-        <v>22.648078947369005</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="E74" s="81">
+        <v>20</v>
+      </c>
+      <c r="F74" s="24">
+        <f>C74-D74</f>
+        <v>442.79380000000674</v>
+      </c>
+      <c r="G74" s="82">
+        <f>F74/D74</f>
+        <v>8.8558760000001339E-3</v>
+      </c>
+      <c r="H74" s="137">
+        <f>G74/E74</f>
+        <v>4.427938000000067E-4</v>
+      </c>
+      <c r="I74" s="138"/>
+      <c r="J74" s="90">
+        <f>H74*365</f>
+        <v>0.16161973700000246</v>
+      </c>
+      <c r="K74" s="152">
+        <f>H74*10000</f>
+        <v>4.4279380000000668</v>
+      </c>
+      <c r="L74" s="153"/>
+      <c r="M74" s="86">
+        <f>F74/E74</f>
+        <v>22.139690000000336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="28">
     <mergeCell ref="A38:A45"/>
     <mergeCell ref="K38:K45"/>
     <mergeCell ref="L38:L45"/>
     <mergeCell ref="B41:B43"/>
-    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H74:I74"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="K60:K65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="K2:K9"/>
     <mergeCell ref="L2:L9"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H73:I73"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="K14:K21"/>
     <mergeCell ref="L14:L21"/>
